--- a/storage/exports/Prestamos.xlsx
+++ b/storage/exports/Prestamos.xlsx
@@ -10,7 +10,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prestamos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reporte_Pivot" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prestamos'!$A$1:$U$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Reporte_Pivot'!$A$1:$L$2</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,13 +430,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="19" max="19"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -472,60 +492,70 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>grati jul 25</t>
+          <t>ago 25</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>jul 25</t>
+          <t>set 25</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ago 25</t>
+          <t>oct 25</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>set 25</t>
+          <t>nov 25</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>oct 25</t>
+          <t>grati dic 25</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>nov 25</t>
+          <t>dic 25</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>grati dic 25</t>
+          <t>ene 26</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>dic 25</t>
+          <t>feb 26</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>ene 26</t>
+          <t>mar 26</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>abr 26</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>may 26</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>MONTO DE AMORTIZACIÓN</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FECHA DE AMORTIZACIÓN</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>OBS DE AMORTIZACIÓN</t>
         </is>
@@ -550,49 +580,55 @@
           <t>Salud</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>539</v>
+      <c r="E2" s="2" t="n">
+        <v>500</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>2025</v>
       </c>
-      <c r="H2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="I2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="K2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="L2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="M2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="N2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="O2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="P2" t="n">
-        <v>59.88</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,64 +636,692 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>75548700</t>
+          <t>72172994</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Estudios</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2500</v>
+          <t>Pérdida de Equipos y/o implementos</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>405</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>2025</v>
       </c>
-      <c r="H3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Campaña Compra de Productos</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fallecimiento</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Daño a la infraestructura</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Catástrofe</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Estudios hijo</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Campaña Compra de Productos</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U12"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -668,13 +1332,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -684,45 +1362,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Abril 2026</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Agosto 2025</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Diciembre 2025</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Enero 2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Febrero 2026</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Gratificación diciembre 2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Gratificación julio 2025</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Julio 2025</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Marzo 2026</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mayo 2026</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Noviembre 2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Octubre 2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Septiembre 2025</t>
         </is>
@@ -734,69 +1422,42 @@
           <t>72172994</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="C2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.88</v>
-      </c>
-      <c r="E2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="G2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="H2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="I2" t="n">
-        <v>59.89</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59.89</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>75548700</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>312.5</v>
+      <c r="B2" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1275</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1672.5</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1337.5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/storage/exports/Prestamos.xlsx
+++ b/storage/exports/Prestamos.xlsx
@@ -11,8 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reporte_Pivot" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prestamos'!$A$1:$U$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Reporte_Pivot'!$A$1:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prestamos'!$A$1:$Z$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Reporte_Pivot'!$A$1:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,7 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -451,7 +455,12 @@
     <col width="12" customWidth="1" min="16" max="16"/>
     <col width="12" customWidth="1" min="17" max="17"/>
     <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="23" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="22" max="22"/>
+    <col width="12" customWidth="1" min="23" max="23"/>
+    <col width="23" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -547,15 +556,40 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>jun 26</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>grati jul 26</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>jul 26</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ago 26</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>set 26</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>MONTO DE AMORTIZACIÓN</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>FECHA DE AMORTIZACIÓN</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>OBS DE AMORTIZACIÓN</t>
         </is>
@@ -595,28 +629,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -627,8 +661,25 @@
       <c r="S2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -696,8 +747,23 @@
       <c r="S3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -765,8 +831,23 @@
       <c r="S4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -834,8 +915,23 @@
       <c r="S5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -903,8 +999,23 @@
       <c r="S6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -972,8 +1083,23 @@
       <c r="S7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1012,37 +1138,54 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1110,8 +1253,23 @@
       <c r="S9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1150,37 +1308,54 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,31 +1388,31 @@
         <v>2025</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
@@ -1248,8 +1423,25 @@
       <c r="S11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1282,46 +1474,1155 @@
         <v>2025</v>
       </c>
       <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="P12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Escolar</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Capacitación</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Catástrofe</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Estudios hijo</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Estudios hijo</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANIA DELGADO YENGLE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Escolar</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>72172994</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ALVARO RODRIGO HERNANDEZ LAOS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="W25" s="2" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="X25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U12"/>
+  <autoFilter ref="A1:Z25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1332,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1343,15 +2644,20 @@
   <cols>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1372,47 +2678,72 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Agosto 2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Diciembre 2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Enero 2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Febrero 2026</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Gratificación diciembre 2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Gratificación julio 2026</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Julio 2026</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Junio 2026</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Marzo 2026</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Mayo 2026</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Noviembre 2025</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Octubre 2025</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Septiembre 2025</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Septiembre 2026</t>
         </is>
       </c>
     </row>
@@ -1423,41 +2754,111 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>360</v>
+        <v>292.22</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1275</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1697.5</v>
+        <v>22.22</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1697.5</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1697.5</v>
+        <v>320</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>447.5</v>
+        <v>342.22</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1672.5</v>
+        <v>295</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>360</v>
+        <v>22.22</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1697.5</v>
+        <v>22.22</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1697.5</v>
+        <v>22.22</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1337.5</v>
+        <v>317.22</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>292.22</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>22.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>75548700</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>198.99</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>223.99</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>223.99</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>223.99</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>223.99</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>199.08</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>223.99</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>223.99</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>223.99</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2"/>
+  <autoFilter ref="A1:Q3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>